--- a/doc/ue_StreamingTexture.xlsx
+++ b/doc/ue_StreamingTexture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CB93FB-ED0D-4951-AAE5-471B50A29CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5B6D92-DC00-4FB0-AF3F-60B6FA2D111F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -629,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
@@ -807,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4C2E1A-DC8E-40F9-B122-503B9436B1F9}">
   <dimension ref="B4:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_StreamingTexture.xlsx
+++ b/doc/ue_StreamingTexture.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5B6D92-DC00-4FB0-AF3F-60B6FA2D111F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="StreamingManager" sheetId="4" r:id="rId2"/>
-    <sheet name="相关机制" sheetId="3" r:id="rId3"/>
-    <sheet name="LOD怎么动态加载卸载 " sheetId="2" r:id="rId4"/>
+    <sheet name="描述" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="StreamingManager" sheetId="4" r:id="rId3"/>
+    <sheet name="相关机制" sheetId="3" r:id="rId4"/>
+    <sheet name="LOD怎么动态加载卸载 " sheetId="2" r:id="rId5"/>
+    <sheet name="texturestreamingpool" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>UCLASS(Abstract, MinimalAPI)</t>
   </si>
@@ -275,13 +276,21 @@
   </si>
   <si>
     <t>所有管理器都进行更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体的逻辑是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流式关卡加载后，不包含这部分的处理？怎么手动执行？！！！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -626,10 +635,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
@@ -803,8 +839,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4C2E1A-DC8E-40F9-B122-503B9436B1F9}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:L59"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -1068,8 +1104,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FD28B6-B447-48A0-91EF-821770D27F76}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1104,8 +1140,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E703FD6C-AE7B-4939-9CD8-1F0C1E6C7786}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1117,4 +1153,18 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>